--- a/data/long_razon/P51_N-Estudios-long_razon.xlsx
+++ b/data/long_razon/P51_N-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,109 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,233 +745,122 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P51_N-Estudios-long_razon.xlsx
+++ b/data/long_razon/P51_N-Estudios-long_razon.xlsx
@@ -635,15 +635,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.8094296210204308</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.613493811750113</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.6430454920827806</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.06754859342415587</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.9927773134614044</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.07584314931719813</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.4770363102088196</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>2.401946056313625</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.3810967963669732</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -652,15 +670,33 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.6713933302336677</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.8444075243078529</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.6781567532636728</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.3182847706541994</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.5021364118338416</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.8380305169120317</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.5453202783437436</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.6298049678278858</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -669,15 +705,33 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.01225765695014813</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>29.7511908379805</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.2497760265905014</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.525109082792272</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>5.362466984599153</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.194638411334727</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.1372120506422289</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>8.237732978801004</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.04467792887862215</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -690,15 +744,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.1292168038507742</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1396605900626951</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.01015137756978115</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.5789653519799766</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.08406001719238794</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.225957256290465</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.2531560529381806</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.1095906032129237</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.1113643053428879</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -707,15 +779,33 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.6267994296080611</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.5793328828979741</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4710781775261354</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1993087912080317</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.4652395819725204</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2140562942784008</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2576353950876865</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.309861956436363</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2475370978605049</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -724,15 +814,33 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>1.076134150453407</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.24140136696565</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.8185596558731848</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.076240167242675</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8543479452794559</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.9239605271585156</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.000016652387152</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.7424922540298359</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.5358613423904849</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -745,15 +853,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.2932114413753244</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.627345085620809</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.7520384332479185</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.010213259555461</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.2913758619704156</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.5164769377698296</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.8809341371865694</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.4806105354886738</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.02032498218827991</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -762,15 +888,33 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.6157414154514536</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.9458751362996172</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4527900479332495</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.5318911347645705</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.7581851838676817</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.8361178677104208</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2027866918691362</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.7828591916810598</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.539485417498297</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -779,15 +923,33 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>3.267428943511237</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.1775698062367741</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.70244603825818</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.77007025849744</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.6717659164764653</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.1259294167858688</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>4.546479927743349</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.1097235515177382</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>1.284706053624569</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -800,15 +962,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.326353588124139</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3077724735635842</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1440296727150181</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4897762515010352</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1403408929152632</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.04589744875597974</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.06524420560091564</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.219156322221839</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.05167911258153936</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -817,15 +997,33 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.6811154942475319</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3112755783813189</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4531446025142088</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1266895692633319</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2659609596745888</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2216896503986937</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.3261644109950301</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1693617297481086</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2778301008903041</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -834,15 +1032,33 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.2154741962816093</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.346670979335739</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3923589491843681</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.365321407638926</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.7161836503723743</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.504573613867646</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.5739757330256055</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.7753009039037611</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.2513970859129414</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
